--- a/Design/config/HeroConfig.xlsx
+++ b/Design/config/HeroConfig.xlsx
@@ -9,11 +9,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$Y$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$X$169</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="576">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1521,18 +1518,6 @@
   <si>
     <t>caiyan</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>蔡琰</t>
@@ -2280,42 +2265,17 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2340,19 +2300,44 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2621,575 +2606,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>英雄列表，最多5人，一般2-3人较多</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>Heros</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>int[]</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>cs</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>100001,101002,101005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>101001,101002,101003,101005,101008</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>101004,101010</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>101004,101017</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>101003,101011,110005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>101005,101013,101012,101021</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>101002,101019</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>101004,101032</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>101016,101035</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14" t="str">
-            <v>101007,101008</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>101014,101002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>101006,101004</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>102002,102006,102012,102013</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18" t="str">
-            <v>102029, 100002,102030,102033,102039</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>102004,102008,102009,102011,102015</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>102001,102003,102010,102022</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>102002,102006</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>102018,102008</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>103001,103002,100003</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>103001,103002,103005,103024,103029</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>103009,103006,103019,103034</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>103008,103010,103011</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>103002,103008</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>103016,103017</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>103003,103004</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>103011,103030</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>104001,104006,104005</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>106006,106001,106002,102008</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>110007,110008,110009</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>105002,105003,100005,102018</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>105001,105005,105008</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>104001,104004</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>101005,102004</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>100002,101005</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>103007,103008</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40" t="str">
-            <v>100003,103006</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>100002,102007,102005</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42" t="str">
-            <v>100001,101001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43" t="str">
-            <v>101004,102018</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>103002,103004</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>101033,101008</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>102001,102004</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>102018,102035</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>105007,105008</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>103008,103028,103005</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50" t="str">
-            <v>104001,104010</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51" t="str">
-            <v>106005,100002</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>105003,105001</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53" t="str">
-            <v>105004,105007,100005</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54" t="str">
-            <v>102004,102028</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55" t="str">
-            <v>100004,104001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56" t="str">
-            <v>100006,110004</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57" t="str">
-            <v>106003,106007,106008</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58" t="str">
-            <v>103002,103016</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>103008,103017</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>100003,103014</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>100001,103014</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>102003,102010</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>103012,103025</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>101031,101026</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>103013,103031</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>101034,101001</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>101034,101023,101025,101027,101030</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>104008,104009,104003</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>101012,101019</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70" t="str">
-            <v>101010,105005,102019</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71" t="str">
-            <v>101038,100001</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72" t="str">
-            <v>100001,101034</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>103008,101004</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74" t="str">
-            <v>101033,101020,101036,101018,110002</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75" t="str">
-            <v>103036,103037</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76" t="str">
-            <v>103023,103018</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77" t="str">
-            <v>102028,102015</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78" t="str">
-            <v>104006,102004</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79" t="str">
-            <v>102034,102025</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80" t="str">
-            <v>101005,101009</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81" t="str">
-            <v>101015,101010</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82" t="str">
-            <v>101022,101024</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83" t="str">
-            <v>101028,102020</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84" t="str">
-            <v>102017,102026,102033</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85" t="str">
-            <v>102024,102012</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86" t="str">
-            <v>102027,102003</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87" t="str">
-            <v>102037,105005</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88" t="str">
-            <v>103015,103006</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89" t="str">
-            <v>104007,100004</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90" t="str">
-            <v>105006,102027</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91" t="str">
-            <v>110001,100001</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92" t="str">
-            <v>110001,101001</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93" t="str">
-            <v>103027,103026,103038</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94" t="str">
-            <v>103003,103020</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95" t="str">
-            <v>104002,104003</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96" t="str">
-            <v>101003,101011,102014</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97" t="str">
-            <v>102011,102014</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98" t="str">
-            <v>102005,101003</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99" t="str">
-            <v>100002,103001,100006,110004,110005</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100" t="str">
-            <v>102016,102009,102036</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101" t="str">
-            <v>103007,103010</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="D102" t="str">
-            <v>103021,103010,103035</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103" t="str">
-            <v>103022,103035,103015</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="D104" t="str">
-            <v>100002,110003</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="D105" t="str">
-            <v>101005,110003</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="D106" t="str">
-            <v>102018,102029,102031,102027,104003</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="D107" t="str">
-            <v>110005,110010</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="D108" t="str">
-            <v>105004,105009</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="D109" t="str">
-            <v>102030,110012</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="D110" t="str">
-            <v>103031,102039,105005</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="D111" t="str">
-            <v>110004,104001,103002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3453,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y169"/>
+  <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="W123" sqref="W123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3471,7 +2887,7 @@
     <col min="23" max="23" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +2949,7 @@
         <v>251</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>325</v>
@@ -3544,11 +2960,8 @@
       <c r="X1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3580,10 +2993,10 @@
         <v>21</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>316</v>
@@ -3604,13 +3017,13 @@
         <v>110</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>341</v>
@@ -3621,11 +3034,8 @@
       <c r="X2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>291</v>
       </c>
@@ -3681,13 +3091,13 @@
         <v>111</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>326</v>
@@ -3698,11 +3108,8 @@
       <c r="X3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,11 +3182,8 @@
       <c r="X4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>100001</v>
       </c>
@@ -3830,11 +3234,11 @@
         <v>1</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5" t="s">
@@ -3846,12 +3250,8 @@
       <c r="X5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y5">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A5 &amp; "*")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>100002</v>
       </c>
@@ -3902,11 +3302,11 @@
         <v>1</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5" t="s">
@@ -3918,12 +3318,8 @@
       <c r="X6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Y6">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A6 &amp; "*")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>100003</v>
       </c>
@@ -3974,11 +3370,11 @@
         <v>1</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5" t="s">
@@ -3990,12 +3386,8 @@
       <c r="X7" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="Y7">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A7 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>100004</v>
       </c>
@@ -4046,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -4060,12 +3452,8 @@
       <c r="X8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="Y8">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A8 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>100005</v>
       </c>
@@ -4116,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -4130,12 +3518,8 @@
       <c r="X9" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="Y9">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A9 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>100006</v>
       </c>
@@ -4186,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -4200,12 +3584,8 @@
       <c r="X10" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="Y10">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A10 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>101001</v>
       </c>
@@ -4257,30 +3637,26 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>329</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="X11" t="s">
         <v>26</v>
       </c>
-      <c r="Y11">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A11 &amp; "*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>101002</v>
       </c>
@@ -4332,11 +3708,11 @@
         <v>1</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5" t="s">
@@ -4348,12 +3724,8 @@
       <c r="X12" t="s">
         <v>27</v>
       </c>
-      <c r="Y12">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A12 &amp; "*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>101003</v>
       </c>
@@ -4405,28 +3777,24 @@
         <v>1</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="s">
         <v>330</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="X13" t="s">
         <v>42</v>
       </c>
-      <c r="Y13">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A13 &amp; "*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>101004</v>
       </c>
@@ -4480,30 +3848,26 @@
         <v>3</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="X14" t="s">
         <v>30</v>
       </c>
-      <c r="Y14">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A14 &amp; "*")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>101005</v>
       </c>
@@ -4555,28 +3919,24 @@
         <v>1</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5" t="s">
         <v>330</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="X15" t="s">
         <v>43</v>
       </c>
-      <c r="Y15">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A15 &amp; "*")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>101006</v>
       </c>
@@ -4630,14 +3990,14 @@
         <v>3</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>332</v>
@@ -4648,12 +4008,8 @@
       <c r="X16" t="s">
         <v>35</v>
       </c>
-      <c r="Y16">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A16 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>101007</v>
       </c>
@@ -4705,14 +4061,14 @@
         <v>1</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>330</v>
@@ -4723,12 +4079,8 @@
       <c r="X17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A17 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>101008</v>
       </c>
@@ -4784,30 +4136,26 @@
         <v>3</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>331</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="X18" t="s">
         <v>41</v>
       </c>
-      <c r="Y18">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A18 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>101009</v>
       </c>
@@ -4859,15 +4207,15 @@
         <v>1</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W19" s="10" t="s">
         <v>117</v>
@@ -4875,12 +4223,8 @@
       <c r="X19" t="s">
         <v>28</v>
       </c>
-      <c r="Y19">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A19 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>101010</v>
       </c>
@@ -4932,11 +4276,11 @@
         <v>1</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5" t="s">
@@ -4948,12 +4292,8 @@
       <c r="X20" t="s">
         <v>92</v>
       </c>
-      <c r="Y20">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A20 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>101011</v>
       </c>
@@ -5005,14 +4345,14 @@
         <v>1</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="V21" s="5" t="s">
         <v>330</v>
@@ -5023,12 +4363,8 @@
       <c r="X21" t="s">
         <v>48</v>
       </c>
-      <c r="Y21">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A21 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>101012</v>
       </c>
@@ -5080,11 +4416,11 @@
         <v>1</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>335</v>
@@ -5095,12 +4431,8 @@
       <c r="X22" t="s">
         <v>88</v>
       </c>
-      <c r="Y22">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A22 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>101013</v>
       </c>
@@ -5152,11 +4484,11 @@
         <v>1</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>329</v>
@@ -5167,12 +4499,8 @@
       <c r="X23" t="s">
         <v>89</v>
       </c>
-      <c r="Y23">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A23 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>101014</v>
       </c>
@@ -5224,28 +4552,24 @@
         <v>1</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5" t="s">
         <v>329</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="X24" t="s">
         <v>34</v>
       </c>
-      <c r="Y24">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A24 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>101015</v>
       </c>
@@ -5297,15 +4621,15 @@
         <v>1</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W25" s="10" t="s">
         <v>117</v>
@@ -5313,12 +4637,8 @@
       <c r="X25" t="s">
         <v>93</v>
       </c>
-      <c r="Y25">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A25 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>101016</v>
       </c>
@@ -5370,11 +4690,11 @@
         <v>1</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="5" t="s">
@@ -5386,12 +4706,8 @@
       <c r="X26" t="s">
         <v>94</v>
       </c>
-      <c r="Y26">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A26 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>101017</v>
       </c>
@@ -5445,14 +4761,14 @@
         <v>3</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>332</v>
@@ -5463,12 +4779,8 @@
       <c r="X27" t="s">
         <v>95</v>
       </c>
-      <c r="Y27">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A27 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>101018</v>
       </c>
@@ -5520,11 +4832,11 @@
         <v>1</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>329</v>
@@ -5535,12 +4847,8 @@
       <c r="X28" t="s">
         <v>96</v>
       </c>
-      <c r="Y28">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A28 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>101019</v>
       </c>
@@ -5592,11 +4900,11 @@
         <v>1</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="V29" s="5" t="s">
         <v>330</v>
@@ -5607,12 +4915,8 @@
       <c r="X29" t="s">
         <v>97</v>
       </c>
-      <c r="Y29">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A29 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>101020</v>
       </c>
@@ -5666,7 +4970,7 @@
         <v>3</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -5674,17 +4978,13 @@
         <v>332</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X30" t="s">
         <v>119</v>
       </c>
-      <c r="Y30">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A30 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>101021</v>
       </c>
@@ -5740,7 +5040,7 @@
         <v>3</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -5748,17 +5048,13 @@
         <v>331</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="X31" t="s">
         <v>120</v>
       </c>
-      <c r="Y31">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A31 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>101022</v>
       </c>
@@ -5814,11 +5110,11 @@
         <v>3</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="V32" s="5" t="s">
         <v>331</v>
@@ -5829,12 +5125,8 @@
       <c r="X32" t="s">
         <v>121</v>
       </c>
-      <c r="Y32">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A32 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>101023</v>
       </c>
@@ -5888,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -5897,17 +5189,13 @@
         <v>338</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X33" t="s">
         <v>126</v>
       </c>
-      <c r="Y33">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A33 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>101024</v>
       </c>
@@ -5961,28 +5249,24 @@
         <v>3</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S34" s="5"/>
       <c r="T34" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X34" t="s">
         <v>136</v>
       </c>
-      <c r="Y34">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A34 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>101025</v>
       </c>
@@ -6036,28 +5320,24 @@
         <v>3</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X35" t="s">
         <v>140</v>
       </c>
-      <c r="Y35">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A35 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>101026</v>
       </c>
@@ -6111,11 +5391,11 @@
         <v>3</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5" t="s">
@@ -6127,12 +5407,8 @@
       <c r="X36" t="s">
         <v>142</v>
       </c>
-      <c r="Y36">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A36 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>101027</v>
       </c>
@@ -6186,28 +5462,24 @@
         <v>3</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X37" t="s">
         <v>143</v>
       </c>
-      <c r="Y37">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A37 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>101028</v>
       </c>
@@ -6259,14 +5531,14 @@
         <v>1</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V38" s="5" t="s">
         <v>329</v>
@@ -6277,12 +5549,8 @@
       <c r="X38" t="s">
         <v>144</v>
       </c>
-      <c r="Y38">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A38 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>101029</v>
       </c>
@@ -6334,11 +5602,11 @@
         <v>1</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5" t="s">
@@ -6350,12 +5618,8 @@
       <c r="X39" t="s">
         <v>145</v>
       </c>
-      <c r="Y39">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A39 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>101030</v>
       </c>
@@ -6409,28 +5673,24 @@
         <v>3</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S40" s="5"/>
       <c r="T40" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X40" t="s">
         <v>146</v>
       </c>
-      <c r="Y40">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A40 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>101031</v>
       </c>
@@ -6484,28 +5744,24 @@
         <v>3</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X41" t="s">
         <v>147</v>
       </c>
-      <c r="Y41">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A41 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>101032</v>
       </c>
@@ -6561,7 +5817,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -6570,17 +5826,13 @@
         <v>331</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="X42" t="s">
         <v>176</v>
       </c>
-      <c r="Y42">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A42 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>101033</v>
       </c>
@@ -6634,11 +5886,11 @@
         <v>3</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5" t="s">
@@ -6650,12 +5902,8 @@
       <c r="X43" t="s">
         <v>188</v>
       </c>
-      <c r="Y43">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A43 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>101034</v>
       </c>
@@ -6709,27 +5957,23 @@
         <v>3</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X44" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="Y44">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A44 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>101035</v>
       </c>
@@ -6781,11 +6025,11 @@
         <v>1</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="5" t="s">
@@ -6797,12 +6041,8 @@
       <c r="X45" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="Y45">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A45 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>101036</v>
       </c>
@@ -6854,15 +6094,15 @@
         <v>1</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S46" s="5"/>
       <c r="T46" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="W46" s="10" t="s">
         <v>117</v>
@@ -6870,12 +6110,8 @@
       <c r="X46" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Y46">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A46 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>101037</v>
       </c>
@@ -6931,11 +6167,11 @@
         <v>3</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="5" t="s">
@@ -6947,12 +6183,8 @@
       <c r="X47" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="Y47">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A47 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>101038</v>
       </c>
@@ -7008,7 +6240,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -7017,17 +6249,13 @@
         <v>331</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="X48" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="Y48">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A48 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>101039</v>
       </c>
@@ -7079,11 +6307,11 @@
         <v>1</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5" t="s">
@@ -7095,17 +6323,13 @@
       <c r="X49" t="s">
         <v>411</v>
       </c>
-      <c r="Y49">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A49 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>101040</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -7154,28 +6378,24 @@
         <v>3</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X50" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y50">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A50 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>102001</v>
       </c>
@@ -7229,11 +6449,11 @@
         <v>3</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="U51" s="5"/>
       <c r="V51" s="5" t="s">
@@ -7245,12 +6465,8 @@
       <c r="X51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Y51">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A51 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>102002</v>
       </c>
@@ -7302,11 +6518,11 @@
         <v>1</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5" t="s">
@@ -7318,12 +6534,8 @@
       <c r="X52" t="s">
         <v>25</v>
       </c>
-      <c r="Y52">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A52 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>102003</v>
       </c>
@@ -7377,11 +6589,11 @@
         <v>3</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5" t="s">
@@ -7393,12 +6605,8 @@
       <c r="X53" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="Y53">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A53 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>102004</v>
       </c>
@@ -7450,11 +6658,11 @@
         <v>1</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5" t="s">
@@ -7466,12 +6674,8 @@
       <c r="X54" t="s">
         <v>29</v>
       </c>
-      <c r="Y54">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A54 &amp; "*")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>102005</v>
       </c>
@@ -7523,15 +6727,15 @@
         <v>1</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="U55" s="5"/>
       <c r="V55" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="W55" s="10" t="s">
         <v>117</v>
@@ -7539,12 +6743,8 @@
       <c r="X55" t="s">
         <v>46</v>
       </c>
-      <c r="Y55">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A55 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>102006</v>
       </c>
@@ -7600,11 +6800,11 @@
         <v>3</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5" t="s">
@@ -7616,12 +6816,8 @@
       <c r="X56" t="s">
         <v>32</v>
       </c>
-      <c r="Y56">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A56 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>102007</v>
       </c>
@@ -7673,11 +6869,11 @@
         <v>1</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U57" s="5"/>
       <c r="V57" s="5" t="s">
@@ -7689,12 +6885,8 @@
       <c r="X57" t="s">
         <v>47</v>
       </c>
-      <c r="Y57">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A57 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>102008</v>
       </c>
@@ -7746,11 +6938,11 @@
         <v>1</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="U58" s="5"/>
       <c r="V58" s="5" t="s">
@@ -7762,12 +6954,8 @@
       <c r="X58" t="s">
         <v>33</v>
       </c>
-      <c r="Y58">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A58 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>102009</v>
       </c>
@@ -7823,28 +7011,24 @@
         <v>3</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="U59" s="5"/>
       <c r="V59" s="5" t="s">
         <v>331</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="X59" t="s">
         <v>36</v>
       </c>
-      <c r="Y59">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A59 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>102010</v>
       </c>
@@ -7898,14 +7082,14 @@
         <v>3</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>332</v>
@@ -7916,12 +7100,8 @@
       <c r="X60" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y60">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A60 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>102011</v>
       </c>
@@ -7973,14 +7153,14 @@
         <v>1</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>329</v>
@@ -7991,12 +7171,8 @@
       <c r="X61" t="s">
         <v>31</v>
       </c>
-      <c r="Y61">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A61 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>102012</v>
       </c>
@@ -8048,11 +7224,11 @@
         <v>1</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="U62" s="5"/>
       <c r="V62" s="5" t="s">
@@ -8064,12 +7240,8 @@
       <c r="X62" t="s">
         <v>37</v>
       </c>
-      <c r="Y62">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A62 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>102013</v>
       </c>
@@ -8121,11 +7293,11 @@
         <v>1</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
@@ -8137,12 +7309,8 @@
       <c r="X63" t="s">
         <v>45</v>
       </c>
-      <c r="Y63">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A63 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>102014</v>
       </c>
@@ -8194,11 +7362,11 @@
         <v>1</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="U64" s="5"/>
       <c r="V64" s="5" t="s">
@@ -8210,12 +7378,8 @@
       <c r="X64" t="s">
         <v>38</v>
       </c>
-      <c r="Y64">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A64 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>102015</v>
       </c>
@@ -8267,11 +7431,11 @@
         <v>1</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="U65" s="5"/>
       <c r="V65" s="5" t="s">
@@ -8283,12 +7447,8 @@
       <c r="X65" t="s">
         <v>49</v>
       </c>
-      <c r="Y65">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A65 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>102016</v>
       </c>
@@ -8340,17 +7500,17 @@
         <v>1</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="W66" s="10" t="s">
         <v>117</v>
@@ -8358,12 +7518,8 @@
       <c r="X66" t="s">
         <v>24</v>
       </c>
-      <c r="Y66">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A66 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>102017</v>
       </c>
@@ -8419,7 +7575,7 @@
         <v>3</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
@@ -8433,12 +7589,8 @@
       <c r="X67" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Y67">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A67 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>102018</v>
       </c>
@@ -8492,11 +7644,11 @@
         <v>3</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="s">
@@ -8508,12 +7660,8 @@
       <c r="X68" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Y68">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A68 &amp; "*")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>102019</v>
       </c>
@@ -8565,15 +7713,15 @@
         <v>1</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W69" s="10" t="s">
         <v>117</v>
@@ -8581,12 +7729,8 @@
       <c r="X69" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Y69">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A69 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>102020</v>
       </c>
@@ -8638,11 +7782,11 @@
         <v>1</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="s">
@@ -8654,12 +7798,8 @@
       <c r="X70" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Y70">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A70 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>102021</v>
       </c>
@@ -8711,11 +7851,11 @@
         <v>1</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="s">
@@ -8727,12 +7867,8 @@
       <c r="X71" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="Y71">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A71 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>102022</v>
       </c>
@@ -8786,14 +7922,14 @@
         <v>3</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="V72" s="5" t="s">
         <v>332</v>
@@ -8804,12 +7940,8 @@
       <c r="X72" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="Y72">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A72 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>102023</v>
       </c>
@@ -8863,27 +7995,23 @@
         <v>3</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="V73" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W73" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X73" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="Y73">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A73 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>102024</v>
       </c>
@@ -8935,14 +8063,14 @@
         <v>1</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W74" s="10" t="s">
         <v>117</v>
@@ -8950,12 +8078,8 @@
       <c r="X74" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Y74">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A74 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>102025</v>
       </c>
@@ -9011,11 +8135,11 @@
         <v>3</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S75" s="5"/>
       <c r="T75" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="V75" s="5" t="s">
         <v>331</v>
@@ -9026,12 +8150,8 @@
       <c r="X75" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="Y75">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A75 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>102026</v>
       </c>
@@ -9083,14 +8203,14 @@
         <v>1</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S76" s="5"/>
       <c r="T76" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W76" s="10" t="s">
         <v>117</v>
@@ -9098,12 +8218,8 @@
       <c r="X76" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Y76">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A76 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>102027</v>
       </c>
@@ -9157,30 +8273,26 @@
         <v>3</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="V77" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W77" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X77" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Y77">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A77 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>102028</v>
       </c>
@@ -9232,14 +8344,14 @@
         <v>1</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="V78" s="5" t="s">
         <v>329</v>
@@ -9250,12 +8362,8 @@
       <c r="X78" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="Y78">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A78 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>102029</v>
       </c>
@@ -9307,15 +8415,15 @@
         <v>1</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="W79" s="10" t="s">
         <v>117</v>
@@ -9323,12 +8431,8 @@
       <c r="X79" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Y79">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A79 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>102030</v>
       </c>
@@ -9382,28 +8486,24 @@
         <v>3</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W80" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X80" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="Y80">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A80 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>102031</v>
       </c>
@@ -9459,7 +8559,7 @@
         <v>3</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
@@ -9468,17 +8568,13 @@
         <v>331</v>
       </c>
       <c r="W81" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="X81" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="Y81">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A81 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>102032</v>
       </c>
@@ -9534,11 +8630,11 @@
         <v>3</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S82" s="5"/>
       <c r="V82" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W82" s="10" t="s">
         <v>117</v>
@@ -9546,12 +8642,8 @@
       <c r="X82" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="Y82">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A82 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>102033</v>
       </c>
@@ -9603,11 +8695,11 @@
         <v>1</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S83" s="5"/>
       <c r="T83" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="s">
@@ -9619,12 +8711,8 @@
       <c r="X83" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="Y83">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A83 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>102034</v>
       </c>
@@ -9676,15 +8764,15 @@
         <v>1</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S84" s="5"/>
       <c r="T84" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W84" s="10" t="s">
         <v>117</v>
@@ -9692,12 +8780,8 @@
       <c r="X84" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Y84">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A84 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>102035</v>
       </c>
@@ -9749,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
@@ -9763,12 +8847,8 @@
       <c r="X85" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="Y85">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A85 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>102036</v>
       </c>
@@ -9820,15 +8900,15 @@
         <v>1</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S86" s="5"/>
       <c r="T86" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W86" s="10" t="s">
         <v>117</v>
@@ -9836,12 +8916,8 @@
       <c r="X86" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="Y86">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A86 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>102037</v>
       </c>
@@ -9895,28 +8971,24 @@
         <v>3</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W87" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X87" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="Y87">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A87 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>102038</v>
       </c>
@@ -9968,28 +9040,24 @@
         <v>1</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S88" s="5"/>
       <c r="T88" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="W88" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="X88" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="Y88">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A88 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>102039</v>
       </c>
@@ -10043,28 +9111,24 @@
         <v>3</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S89" s="5"/>
       <c r="T89" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W89" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X89" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="Y89">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A89 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>102040</v>
       </c>
@@ -10118,28 +9182,24 @@
         <v>3</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S90" s="5"/>
       <c r="T90" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="U90" s="5"/>
       <c r="V90" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W90" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X90" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="Y90">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A90 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>102041</v>
       </c>
@@ -10193,32 +9253,28 @@
         <v>3</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S91" s="5"/>
       <c r="T91" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="V91" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W91" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X91" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="Y91">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A91 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>102042</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -10267,27 +9323,23 @@
         <v>3</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S92" s="5"/>
       <c r="T92" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="W92" s="10" t="s">
         <v>116</v>
       </c>
       <c r="X92" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y92">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A92 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>103001</v>
       </c>
@@ -10339,11 +9391,11 @@
         <v>1</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S93" s="5"/>
       <c r="T93" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="U93" s="5"/>
       <c r="V93" s="5" t="s">
@@ -10355,12 +9407,8 @@
       <c r="X93" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="Y93">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A93 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>103002</v>
       </c>
@@ -10412,11 +9460,11 @@
         <v>1</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S94" s="5"/>
       <c r="T94" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="U94" s="5"/>
       <c r="V94" s="5" t="s">
@@ -10428,12 +9476,8 @@
       <c r="X94" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Y94">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A94 &amp; "*")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>103003</v>
       </c>
@@ -10489,11 +9533,11 @@
         <v>3</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S95" s="5"/>
       <c r="T95" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="U95" s="5"/>
       <c r="V95" s="5" t="s">
@@ -10505,12 +9549,8 @@
       <c r="X95" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="Y95">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A95 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>103004</v>
       </c>
@@ -10566,11 +9606,11 @@
         <v>3</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S96" s="5"/>
       <c r="T96" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="U96" s="5"/>
       <c r="V96" s="5" t="s">
@@ -10582,12 +9622,8 @@
       <c r="X96" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Y96">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A96 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>103005</v>
       </c>
@@ -10639,11 +9675,11 @@
         <v>1</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S97" s="5"/>
       <c r="T97" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="U97" s="5"/>
       <c r="V97" s="5" t="s">
@@ -10655,12 +9691,8 @@
       <c r="X97" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="Y97">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A97 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>103006</v>
       </c>
@@ -10712,11 +9744,11 @@
         <v>1</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S98" s="5"/>
       <c r="T98" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="U98" s="5"/>
       <c r="V98" s="5" t="s">
@@ -10728,12 +9760,8 @@
       <c r="X98" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="Y98">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A98 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>103007</v>
       </c>
@@ -10787,30 +9815,26 @@
         <v>3</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S99" s="5"/>
       <c r="T99" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="V99" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W99" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X99" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="Y99">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A99 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>103008</v>
       </c>
@@ -10864,14 +9888,14 @@
         <v>3</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S100" s="5"/>
       <c r="T100" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="U100" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="V100" s="5" t="s">
         <v>332</v>
@@ -10882,12 +9906,8 @@
       <c r="X100" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="Y100">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A100 &amp; "*")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>103009</v>
       </c>
@@ -10939,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
@@ -10953,12 +9973,8 @@
       <c r="X101" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="Y101">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A101 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>103010</v>
       </c>
@@ -11010,14 +10026,14 @@
         <v>1</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S102" s="5"/>
       <c r="T102" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="U102" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="V102" s="5" t="s">
         <v>336</v>
@@ -11028,12 +10044,8 @@
       <c r="X102" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="Y102">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A102 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>103011</v>
       </c>
@@ -11087,11 +10099,11 @@
         <v>3</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S103" s="5"/>
       <c r="T103" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="U103" s="5"/>
       <c r="V103" s="5" t="s">
@@ -11103,12 +10115,8 @@
       <c r="X103" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Y103">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A103 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>103012</v>
       </c>
@@ -11162,7 +10170,7 @@
         <v>3</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
@@ -11171,17 +10179,13 @@
         <v>338</v>
       </c>
       <c r="W104" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X104" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Y104">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A104 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>103013</v>
       </c>
@@ -11235,28 +10239,24 @@
         <v>3</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S105" s="5"/>
       <c r="T105" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="U105" s="5"/>
       <c r="V105" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W105" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X105" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Y105">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A105 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>103014</v>
       </c>
@@ -11312,7 +10312,7 @@
         <v>3</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
@@ -11326,12 +10326,8 @@
       <c r="X106" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y106">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A106 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>103015</v>
       </c>
@@ -11383,14 +10379,14 @@
         <v>1</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S107" s="5"/>
       <c r="T107" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="U107" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="V107" s="5" t="s">
         <v>329</v>
@@ -11401,12 +10397,8 @@
       <c r="X107" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="Y107">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A107 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>103016</v>
       </c>
@@ -11460,14 +10452,14 @@
         <v>3</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="S108" s="5"/>
       <c r="T108" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="U108" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V108" s="5" t="s">
         <v>338</v>
@@ -11478,12 +10470,8 @@
       <c r="X108" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="Y108">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A108 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>103017</v>
       </c>
@@ -11537,14 +10525,14 @@
         <v>3</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="S109" s="5"/>
       <c r="T109" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="U109" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V109" s="5" t="s">
         <v>338</v>
@@ -11555,12 +10543,8 @@
       <c r="X109" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="Y109">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A109 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>103018</v>
       </c>
@@ -11616,7 +10600,7 @@
         <v>3</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
@@ -11625,17 +10609,13 @@
         <v>331</v>
       </c>
       <c r="W110" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="X110" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Y110">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A110 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>103019</v>
       </c>
@@ -11687,14 +10667,14 @@
         <v>1</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S111" s="5"/>
       <c r="T111" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="V111" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W111" s="10" t="s">
         <v>117</v>
@@ -11702,12 +10682,8 @@
       <c r="X111" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y111">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A111 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>103020</v>
       </c>
@@ -11763,11 +10739,11 @@
         <v>3</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="S112" s="5"/>
       <c r="T112" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="V112" s="5" t="s">
         <v>331</v>
@@ -11778,12 +10754,8 @@
       <c r="X112" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Y112">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A112 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>103021</v>
       </c>
@@ -11835,14 +10807,14 @@
         <v>1</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S113" s="5"/>
       <c r="T113" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="U113" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="V113" s="5" t="s">
         <v>337</v>
@@ -11853,12 +10825,8 @@
       <c r="X113" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="Y113">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A113 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>103022</v>
       </c>
@@ -11914,11 +10882,11 @@
         <v>3</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S114" s="5"/>
       <c r="T114" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="U114" s="5"/>
       <c r="V114" s="5" t="s">
@@ -11930,12 +10898,8 @@
       <c r="X114" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="Y114">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A114 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>103023</v>
       </c>
@@ -11987,11 +10951,11 @@
         <v>1</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S115" s="5"/>
       <c r="T115" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U115" s="5"/>
       <c r="V115" s="5" t="s">
@@ -12003,12 +10967,8 @@
       <c r="X115" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="Y115">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A115 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>103024</v>
       </c>
@@ -12060,17 +11020,17 @@
         <v>1</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S116" s="5"/>
       <c r="T116" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="V116" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="W116" s="10" t="s">
         <v>117</v>
@@ -12078,12 +11038,8 @@
       <c r="X116" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="Y116">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A116 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>103025</v>
       </c>
@@ -12137,28 +11093,24 @@
         <v>3</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S117" s="5"/>
       <c r="T117" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="U117" s="5"/>
       <c r="V117" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W117" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X117" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="Y117">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A117 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>103026</v>
       </c>
@@ -12212,28 +11164,24 @@
         <v>3</v>
       </c>
       <c r="R118" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S118" s="5"/>
       <c r="T118" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="U118" s="5"/>
       <c r="V118" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W118" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X118" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="Y118">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A118 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>103027</v>
       </c>
@@ -12287,28 +11235,24 @@
         <v>3</v>
       </c>
       <c r="R119" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S119" s="5"/>
       <c r="T119" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="U119" s="5"/>
       <c r="V119" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="W119" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X119" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="Y119">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A119 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>103028</v>
       </c>
@@ -12362,11 +11306,11 @@
         <v>3</v>
       </c>
       <c r="R120" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S120" s="5"/>
       <c r="T120" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="U120" s="5"/>
       <c r="V120" s="5" t="s">
@@ -12378,12 +11322,8 @@
       <c r="X120" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="Y120">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A120 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>103029</v>
       </c>
@@ -12435,11 +11375,11 @@
         <v>1</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S121" s="5"/>
       <c r="T121" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="U121" s="5"/>
       <c r="V121" s="5" t="s">
@@ -12451,12 +11391,8 @@
       <c r="X121" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="Y121">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A121 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>103030</v>
       </c>
@@ -12512,11 +11448,11 @@
         <v>3</v>
       </c>
       <c r="R122" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="S122" s="5"/>
       <c r="T122" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="U122" s="5"/>
       <c r="V122" s="5" t="s">
@@ -12528,12 +11464,8 @@
       <c r="X122" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Y122">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A122 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>103031</v>
       </c>
@@ -12587,11 +11519,11 @@
         <v>3</v>
       </c>
       <c r="R123" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S123" s="5"/>
       <c r="T123" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="U123" s="5"/>
       <c r="V123" s="5" t="s">
@@ -12603,12 +11535,8 @@
       <c r="X123" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="Y123">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A123 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>103032</v>
       </c>
@@ -12660,15 +11588,15 @@
         <v>1</v>
       </c>
       <c r="R124" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S124" s="5"/>
       <c r="T124" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="U124" s="5"/>
       <c r="V124" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W124" s="10" t="s">
         <v>117</v>
@@ -12676,12 +11604,8 @@
       <c r="X124" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="Y124">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A124 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>103033</v>
       </c>
@@ -12733,15 +11657,15 @@
         <v>1</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S125" s="5"/>
       <c r="T125" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="U125" s="5"/>
       <c r="V125" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W125" s="10" t="s">
         <v>117</v>
@@ -12749,12 +11673,8 @@
       <c r="X125" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="Y125">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A125 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>103034</v>
       </c>
@@ -12806,11 +11726,11 @@
         <v>1</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S126" s="5"/>
       <c r="T126" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="U126" s="5"/>
       <c r="V126" s="5" t="s">
@@ -12822,12 +11742,8 @@
       <c r="X126" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="Y126">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A126 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>103035</v>
       </c>
@@ -12879,15 +11795,15 @@
         <v>1</v>
       </c>
       <c r="R127" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S127" s="5"/>
       <c r="T127" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="U127" s="5"/>
       <c r="V127" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W127" s="10" t="s">
         <v>117</v>
@@ -12895,12 +11811,8 @@
       <c r="X127" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="Y127">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A127 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>103036</v>
       </c>
@@ -12952,15 +11864,15 @@
         <v>1</v>
       </c>
       <c r="R128" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S128" s="5"/>
       <c r="T128" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="U128" s="5"/>
       <c r="V128" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W128" s="10" t="s">
         <v>117</v>
@@ -12968,12 +11880,8 @@
       <c r="X128" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="Y128">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A128 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>103037</v>
       </c>
@@ -13025,15 +11933,15 @@
         <v>1</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S129" s="5"/>
       <c r="T129" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="U129" s="5"/>
       <c r="V129" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W129" s="10" t="s">
         <v>117</v>
@@ -13041,12 +11949,8 @@
       <c r="X129" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="Y129">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A129 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>103038</v>
       </c>
@@ -13100,28 +12004,24 @@
         <v>3</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S130" s="5"/>
       <c r="T130" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="U130" s="5"/>
       <c r="V130" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W130" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X130" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="Y130">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A130 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>104001</v>
       </c>
@@ -13173,30 +12073,26 @@
         <v>1</v>
       </c>
       <c r="R131" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S131" s="5"/>
       <c r="T131" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="U131" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="V131" s="5" t="s">
         <v>333</v>
       </c>
       <c r="W131" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="X131" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="Y131">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A131 &amp; "*")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>104002</v>
       </c>
@@ -13248,11 +12144,11 @@
         <v>1</v>
       </c>
       <c r="R132" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S132" s="5"/>
       <c r="T132" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="U132" s="5"/>
       <c r="V132" s="5" t="s">
@@ -13264,12 +12160,8 @@
       <c r="X132" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="Y132">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A132 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>104003</v>
       </c>
@@ -13323,11 +12215,11 @@
         <v>3</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S133" s="5"/>
       <c r="T133" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="U133" s="5"/>
       <c r="V133" s="5" t="s">
@@ -13339,12 +12231,8 @@
       <c r="X133" t="s">
         <v>50</v>
       </c>
-      <c r="Y133">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A133 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>104004</v>
       </c>
@@ -13398,11 +12286,11 @@
         <v>3</v>
       </c>
       <c r="R134" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="S134" s="5"/>
       <c r="T134" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="U134" s="5"/>
       <c r="V134" s="5" t="s">
@@ -13414,12 +12302,8 @@
       <c r="X134" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="Y134">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A134 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>104005</v>
       </c>
@@ -13471,15 +12355,15 @@
         <v>1</v>
       </c>
       <c r="R135" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S135" s="5"/>
       <c r="T135" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="U135" s="5"/>
       <c r="V135" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="W135" s="10" t="s">
         <v>117</v>
@@ -13487,12 +12371,8 @@
       <c r="X135" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="Y135">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A135 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>104006</v>
       </c>
@@ -13548,7 +12428,7 @@
         <v>3</v>
       </c>
       <c r="R136" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
@@ -13557,17 +12437,13 @@
         <v>331</v>
       </c>
       <c r="W136" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="X136" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="Y136">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A136 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>104007</v>
       </c>
@@ -13621,11 +12497,11 @@
         <v>3</v>
       </c>
       <c r="R137" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S137" s="5"/>
       <c r="T137" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="U137" s="5"/>
       <c r="V137" s="5" t="s">
@@ -13637,12 +12513,8 @@
       <c r="X137" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="Y137">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A137 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>104008</v>
       </c>
@@ -13694,15 +12566,15 @@
         <v>1</v>
       </c>
       <c r="R138" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S138" s="5"/>
       <c r="T138" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="U138" s="5"/>
       <c r="V138" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W138" s="10" t="s">
         <v>117</v>
@@ -13710,12 +12582,8 @@
       <c r="X138" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="Y138">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A138 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>104009</v>
       </c>
@@ -13767,14 +12635,14 @@
         <v>1</v>
       </c>
       <c r="R139" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S139" s="5"/>
       <c r="T139" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="V139" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W139" s="10" t="s">
         <v>117</v>
@@ -13782,12 +12650,8 @@
       <c r="X139" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="Y139">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A139 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>104010</v>
       </c>
@@ -13841,14 +12705,14 @@
         <v>3</v>
       </c>
       <c r="R140" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S140" s="5"/>
       <c r="T140" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="U140" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V140" s="5" t="s">
         <v>332</v>
@@ -13859,12 +12723,8 @@
       <c r="X140" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="Y140">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A140 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>105001</v>
       </c>
@@ -13916,11 +12776,11 @@
         <v>1</v>
       </c>
       <c r="R141" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S141" s="5"/>
       <c r="T141" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="V141" s="5" t="s">
         <v>329</v>
@@ -13931,12 +12791,8 @@
       <c r="X141" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Y141">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A141 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>105002</v>
       </c>
@@ -13990,24 +12846,20 @@
         <v>3</v>
       </c>
       <c r="R142" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S142" s="5"/>
       <c r="V142" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W142" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X142" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="Y142">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A142 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>105003</v>
       </c>
@@ -14061,27 +12913,23 @@
         <v>3</v>
       </c>
       <c r="R143" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S143" s="5"/>
       <c r="T143" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V143" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W143" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X143" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="Y143">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A143 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>105004</v>
       </c>
@@ -14133,11 +12981,11 @@
         <v>1</v>
       </c>
       <c r="R144" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S144" s="5"/>
       <c r="T144" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="V144" s="5" t="s">
         <v>330</v>
@@ -14148,12 +12996,8 @@
       <c r="X144" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="Y144">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A144 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>105005</v>
       </c>
@@ -14207,11 +13051,11 @@
         <v>3</v>
       </c>
       <c r="R145" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S145" s="5"/>
       <c r="T145" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="V145" s="5" t="s">
         <v>332</v>
@@ -14222,12 +13066,8 @@
       <c r="X145" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Y145">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A145 &amp; "*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>105006</v>
       </c>
@@ -14279,11 +13119,11 @@
         <v>1</v>
       </c>
       <c r="R146" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S146" s="5"/>
       <c r="T146" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="V146" s="5" t="s">
         <v>384</v>
@@ -14294,12 +13134,8 @@
       <c r="X146" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="Y146">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A146 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>105007</v>
       </c>
@@ -14353,27 +13189,23 @@
         <v>3</v>
       </c>
       <c r="R147" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S147" s="5"/>
       <c r="T147" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="V147" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W147" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X147" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="Y147">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A147 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>105008</v>
       </c>
@@ -14425,14 +13257,14 @@
         <v>1</v>
       </c>
       <c r="R148" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S148" s="5"/>
       <c r="T148" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="V148" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W148" s="10" t="s">
         <v>117</v>
@@ -14440,12 +13272,8 @@
       <c r="X148" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="Y148">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A148 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>105009</v>
       </c>
@@ -14499,27 +13327,23 @@
         <v>3</v>
       </c>
       <c r="R149" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S149" s="5"/>
       <c r="T149" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="V149" s="5" t="s">
         <v>332</v>
       </c>
       <c r="W149" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X149" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="Y149">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A149 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>106001</v>
       </c>
@@ -14571,11 +13395,11 @@
         <v>1</v>
       </c>
       <c r="R150" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S150" s="5"/>
       <c r="T150" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U150" s="5"/>
       <c r="V150" s="5" t="s">
@@ -14587,12 +13411,8 @@
       <c r="X150" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="Y150">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A150 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>106002</v>
       </c>
@@ -14644,11 +13464,11 @@
         <v>1</v>
       </c>
       <c r="R151" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S151" s="5"/>
       <c r="T151" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="U151" s="5"/>
       <c r="V151" s="5" t="s">
@@ -14660,12 +13480,8 @@
       <c r="X151" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="Y151">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A151 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>106003</v>
       </c>
@@ -14719,11 +13535,11 @@
         <v>3</v>
       </c>
       <c r="R152" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S152" s="5"/>
       <c r="T152" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="U152" s="5"/>
       <c r="V152" s="5" t="s">
@@ -14735,12 +13551,8 @@
       <c r="X152" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="Y152">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A152 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>106004</v>
       </c>
@@ -14796,7 +13608,7 @@
         <v>3</v>
       </c>
       <c r="R153" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
@@ -14810,12 +13622,8 @@
       <c r="X153" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="Y153">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A153 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>106005</v>
       </c>
@@ -14869,11 +13677,11 @@
         <v>3</v>
       </c>
       <c r="R154" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S154" s="5"/>
       <c r="T154" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="U154" s="5"/>
       <c r="V154" s="5" t="s">
@@ -14885,12 +13693,8 @@
       <c r="X154" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="Y154">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A154 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>106006</v>
       </c>
@@ -14942,13 +13746,13 @@
         <v>1</v>
       </c>
       <c r="R155" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W155" s="10" t="s">
         <v>117</v>
@@ -14956,12 +13760,8 @@
       <c r="X155" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="Y155">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A155 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>106007</v>
       </c>
@@ -15015,11 +13815,11 @@
         <v>3</v>
       </c>
       <c r="R156" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S156" s="5"/>
       <c r="T156" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="U156" s="5"/>
       <c r="V156" s="5" t="s">
@@ -15031,12 +13831,8 @@
       <c r="X156" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="Y156">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A156 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>106008</v>
       </c>
@@ -15090,30 +13886,26 @@
         <v>3</v>
       </c>
       <c r="R157" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S157" s="5"/>
       <c r="T157" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="U157" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="V157" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W157" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X157" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="Y157">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A157 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>110001</v>
       </c>
@@ -15165,15 +13957,15 @@
         <v>1</v>
       </c>
       <c r="R158" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S158" s="5"/>
       <c r="T158" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U158" s="5"/>
       <c r="V158" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="W158" s="10" t="s">
         <v>117</v>
@@ -15181,17 +13973,13 @@
       <c r="X158" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="Y158">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A158 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>110002</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C159" s="5">
         <v>1</v>
@@ -15242,11 +14030,11 @@
         <v>3</v>
       </c>
       <c r="R159" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S159" s="5"/>
       <c r="T159" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="U159" s="5"/>
       <c r="V159" s="5" t="s">
@@ -15258,12 +14046,8 @@
       <c r="X159" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Y159">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A159 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>110003</v>
       </c>
@@ -15317,28 +14101,24 @@
         <v>3</v>
       </c>
       <c r="R160" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="S160" s="5"/>
       <c r="T160" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="U160" s="5"/>
       <c r="V160" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W160" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="X160" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Y160">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A160 &amp; "*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>110004</v>
       </c>
@@ -15390,13 +14170,13 @@
         <v>1</v>
       </c>
       <c r="R161" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
       <c r="V161" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W161" s="10" t="s">
         <v>117</v>
@@ -15404,12 +14184,8 @@
       <c r="X161" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="Y161">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A161 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>110005</v>
       </c>
@@ -15461,15 +14237,15 @@
         <v>1</v>
       </c>
       <c r="R162" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S162" s="5"/>
       <c r="T162" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="U162" s="5"/>
       <c r="V162" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W162" s="10" t="s">
         <v>117</v>
@@ -15477,12 +14253,8 @@
       <c r="X162" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="Y162">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A162 &amp; "*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>110006</v>
       </c>
@@ -15536,28 +14308,24 @@
         <v>3</v>
       </c>
       <c r="R163" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="S163" s="5"/>
       <c r="T163" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="U163" s="5"/>
       <c r="V163" s="5" t="s">
         <v>338</v>
       </c>
       <c r="W163" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="X163" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="Y163">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A163 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>110007</v>
       </c>
@@ -15611,14 +14379,14 @@
         <v>3</v>
       </c>
       <c r="R164" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S164" s="5"/>
       <c r="T164" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="U164" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>332</v>
@@ -15629,12 +14397,8 @@
       <c r="X164" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="Y164">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A164 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>110008</v>
       </c>
@@ -15645,7 +14409,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="5">
-        <f t="shared" ref="D165:D196" si="15">INT(E165/3)</f>
+        <f t="shared" ref="D165:D169" si="15">INT(E165/3)</f>
         <v>27</v>
       </c>
       <c r="E165" s="5">
@@ -15658,7 +14422,7 @@
         <v>71</v>
       </c>
       <c r="H165" s="5">
-        <f t="shared" ref="H165:H196" si="16">SUM(E165:G165)</f>
+        <f t="shared" ref="H165:H169" si="16">SUM(E165:G165)</f>
         <v>235</v>
       </c>
       <c r="I165" s="5">
@@ -15686,11 +14450,11 @@
         <v>1</v>
       </c>
       <c r="R165" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S165" s="5"/>
       <c r="T165" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="U165" s="5"/>
       <c r="V165" s="5" t="s">
@@ -15702,12 +14466,8 @@
       <c r="X165" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="Y165">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A165 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>110009</v>
       </c>
@@ -15763,7 +14523,7 @@
         <v>3</v>
       </c>
       <c r="R166" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
@@ -15777,12 +14537,8 @@
       <c r="X166" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="Y166">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A166 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>110010</v>
       </c>
@@ -15834,15 +14590,15 @@
         <v>1</v>
       </c>
       <c r="R167" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S167" s="5"/>
       <c r="T167" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="U167" s="5"/>
       <c r="V167" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W167" s="10" t="s">
         <v>117</v>
@@ -15850,12 +14606,8 @@
       <c r="X167" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="Y167">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A167 &amp; "*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>110011</v>
       </c>
@@ -15907,13 +14659,13 @@
         <v>1</v>
       </c>
       <c r="R168" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
       <c r="V168" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="W168" s="10" t="s">
         <v>117</v>
@@ -15921,17 +14673,13 @@
       <c r="X168" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Y168">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A168 &amp; "*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>110012</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C169" s="5">
         <v>1</v>
@@ -15980,15 +14728,15 @@
         <v>3</v>
       </c>
       <c r="R169" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="S169" s="5"/>
       <c r="T169" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="U169" s="5"/>
       <c r="V169" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="W169" s="10" t="s">
         <v>116</v>
@@ -15996,13 +14744,9 @@
       <c r="X169" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="Y169">
-        <f>COUNTIF([1]Sheet1!$D:$D, "*" &amp; A169 &amp; "*")</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y169">
+  <autoFilter ref="A4:X169">
     <sortState ref="A5:Y169">
       <sortCondition ref="A4:A169"/>
     </sortState>
@@ -17074,35 +15818,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"帅"</formula>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"炮"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"弩"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"弓"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"医"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"乐"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"鼓"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"相"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"扇"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"谋"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"扇"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"相"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"鼓"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"乐"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"医"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"弓"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"弩"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"炮"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>"帅"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
